--- a/Data/PDS_Data_Sheet.xlsx
+++ b/Data/PDS_Data_Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="170">
   <si>
     <t>userName</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Hello</t>
   </si>
   <si>
-    <t>Please indicate the type of data that will be processed (accessed, stored, and/or shared)</t>
-  </si>
-  <si>
     <t>Please Describe how PHI will be used by Vendor:</t>
   </si>
   <si>
@@ -281,12 +278,6 @@
     <t>Please Describe:</t>
   </si>
   <si>
-    <t>sdfadf</t>
-  </si>
-  <si>
-    <t>DataSecurityQuestion</t>
-  </si>
-  <si>
     <t>PII - Personally Identifiable Information</t>
   </si>
   <si>
@@ -296,21 +287,6 @@
     <t>Please Describe how PII will be used by Vendor</t>
   </si>
   <si>
-    <t>DataSecurityQuestion1</t>
-  </si>
-  <si>
-    <t>DataSecurityQuestion2</t>
-  </si>
-  <si>
-    <t>DataSecurityQuestion3</t>
-  </si>
-  <si>
-    <t>DataSecurityQuestion4</t>
-  </si>
-  <si>
-    <t>DataSecurityQuestion5</t>
-  </si>
-  <si>
     <t>Please indicate the type of data that will be processed (accessed, stored, and/or shared):</t>
   </si>
   <si>
@@ -341,9 +317,6 @@
     <t>28205</t>
   </si>
   <si>
-    <t>Vendor Information</t>
-  </si>
-  <si>
     <t>391  Camel Back Road</t>
   </si>
   <si>
@@ -360,6 +333,210 @@
   </si>
   <si>
     <t>Existing</t>
+  </si>
+  <si>
+    <t>DatasharingQuestion</t>
+  </si>
+  <si>
+    <t>Please indicate the type of data that will be processed</t>
+  </si>
+  <si>
+    <t>PHI - Protected Health Information</t>
+  </si>
+  <si>
+    <t>Hai</t>
+  </si>
+  <si>
+    <t>Financial Information1</t>
+  </si>
+  <si>
+    <t>Financial Information2</t>
+  </si>
+  <si>
+    <t>Financial Information3</t>
+  </si>
+  <si>
+    <t>Other confidential information</t>
+  </si>
+  <si>
+    <t>Financial Information</t>
+  </si>
+  <si>
+    <t>data_sharing_and_security_question1</t>
+  </si>
+  <si>
+    <t>data_sharing_and_security_question2</t>
+  </si>
+  <si>
+    <t>data_sharing_and_security_question3</t>
+  </si>
+  <si>
+    <t>data_sharing_and_security_question4</t>
+  </si>
+  <si>
+    <t>data_sharing_and_security_question5</t>
+  </si>
+  <si>
+    <t>data_sharing_and_security_question6</t>
+  </si>
+  <si>
+    <t>Does the vendor have an information security program?</t>
+  </si>
+  <si>
+    <t>How would vendor access PDS' Infrastructure &amp; data? e.g. remote access VPN, Cloud Service etc.</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>Where would PDS's data be stored?</t>
+  </si>
+  <si>
+    <t>Cloud Service</t>
+  </si>
+  <si>
+    <t>Please indicate below:</t>
+  </si>
+  <si>
+    <t>Food &amp; Drug Administration</t>
+  </si>
+  <si>
+    <t>Has the vendor implemented Information Security Standards, Programs or Frameworks?</t>
+  </si>
+  <si>
+    <t>Please indicate the type below:</t>
+  </si>
+  <si>
+    <t>data_sharing_and_security_question7</t>
+  </si>
+  <si>
+    <t>Sarbanes - Oxley Act (SOX)</t>
+  </si>
+  <si>
+    <t>Would any part/aspect of the service be subcontracted to another vendor/service provider?</t>
+  </si>
+  <si>
+    <t>data_sharing_and_security_question8</t>
+  </si>
+  <si>
+    <t>Please list the name of the subcontractors</t>
+  </si>
+  <si>
+    <t>List of services to be subcontracted</t>
+  </si>
+  <si>
+    <t>data_sharing_and_security_question9</t>
+  </si>
+  <si>
+    <t>fgtfg</t>
+  </si>
+  <si>
+    <t>data_sharing_and_security_question10</t>
+  </si>
+  <si>
+    <t>jgjhkj</t>
+  </si>
+  <si>
+    <t>Does the vendor have an information security program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How would vendor access </t>
+  </si>
+  <si>
+    <t>Where would PDS data be stored</t>
+  </si>
+  <si>
+    <t>Is the servicesubject to any regulatory requirements</t>
+  </si>
+  <si>
+    <t>Please indicate below</t>
+  </si>
+  <si>
+    <t>Has the vendor implemented Information Security Standards Programs or Frameworks</t>
+  </si>
+  <si>
+    <t>Please indicate the type below</t>
+  </si>
+  <si>
+    <t>Would any part aspect of the service be subcontracted to another vendor service provider</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>PCI DSS</t>
+  </si>
+  <si>
+    <t>Information Security Standard (ISO) 27001</t>
+  </si>
+  <si>
+    <t>Is the service (vendor, data or platform) subject to any regulatory requirements?</t>
+  </si>
+  <si>
+    <t>Has the vendor completed a Payment Card Industry</t>
+  </si>
+  <si>
+    <t>Approver_Username</t>
+  </si>
+  <si>
+    <t>Approver_Password</t>
+  </si>
+  <si>
+    <t>azhagumaran.rajendren@serendebyte.com</t>
+  </si>
+  <si>
+    <t>Vendor_Text</t>
+  </si>
+  <si>
+    <t>Vendor Contract Approval Request</t>
+  </si>
+  <si>
+    <t>Button_Value</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>Text_Value</t>
+  </si>
+  <si>
+    <t>Please provide Additional Information on what is needed, below.</t>
+  </si>
+  <si>
+    <t>Please provide Additional Information on what is needed</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>Finacial_information_text</t>
+  </si>
+  <si>
+    <t>Cost Associated with Contract Charged to:</t>
+  </si>
+  <si>
+    <t>Cost Associated with Contract Charged to</t>
+  </si>
+  <si>
+    <t>PIC-Approved Project Budget</t>
+  </si>
+  <si>
+    <t>Dental Offices/Field</t>
+  </si>
+  <si>
+    <t>Attribute_Value</t>
+  </si>
+  <si>
+    <t>Attribute_Name</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>Reassign</t>
+  </si>
+  <si>
+    <t>Complete the assignment</t>
   </si>
 </sst>
 </file>
@@ -423,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -434,6 +611,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -450,6 +628,100 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="https://pdsllc-dt1.pegacloud.io/prweb/hcSYBlMOH20-aAz95BHLpQ%5B%5B*/webwb/requiredstar_13824365626.gif!!.gif"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="34642425" y="1685925"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 1" descr="https://pdsllc-dt1.pegacloud.io/prweb/hcSYBlMOH20-aAz95BHLpQ%5B%5B*/webwb/requiredstar_13824365626.gif!!.gif"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="34642425" y="533400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV3"/>
+  <dimension ref="A1:BY3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:CB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,10 +1017,11 @@
     <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="19.85546875" customWidth="1"/>
+    <col min="44" max="44" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -845,47 +1118,140 @@
       <c r="AF1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AG1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO1" t="s">
         <v>79</v>
       </c>
-      <c r="AJ1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AP1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR1" t="s">
         <v>81</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AS1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT1" t="s">
         <v>82</v>
       </c>
-      <c r="AM1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>93</v>
+      <c r="AU1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -908,31 +1274,31 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I2">
         <v>5689451278</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="N2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>2</v>
@@ -982,50 +1348,140 @@
       <c r="AF2" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" t="s">
         <v>86</v>
       </c>
       <c r="AH2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="AI2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="AK2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AL2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AQ2" t="s">
         <v>81</v>
       </c>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="5"/>
+      <c r="AR2" s="8">
+        <v>43608</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BV2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BX2" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:77" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1048,28 +1504,28 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I3">
         <v>6523451278</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="P3">
         <v>65894</v>
@@ -1078,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="S3" t="s">
         <v>32</v>
@@ -1108,13 +1564,13 @@
         <v>70</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>9</v>
@@ -1122,48 +1578,1594 @@
       <c r="AF3" t="s">
         <v>76</v>
       </c>
+      <c r="AG3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR3" s="8">
+        <v>43608</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BV3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BX3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BY3" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BX3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:CA3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:76" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>2365458721</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>5689451278</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2">
+        <v>65894</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2">
+        <v>250100</v>
+      </c>
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" s="8">
+        <v>43608</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BW2" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:76" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>2365458721</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>5689451278</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3">
+        <v>65894</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3">
+        <v>250100</v>
+      </c>
+      <c r="U3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ3" s="8">
+        <v>43608</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BR3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BW3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BX3" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CC3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AB3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:81" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="CB1" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>2365458721</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>5689451278</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2">
+        <v>65894</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2">
+        <v>250100</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV2" s="8">
+        <v>43608</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BW2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BZ2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="CB2" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:81" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>2365458721</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>5689451278</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3">
+        <v>65894</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3">
+        <v>250100</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="AG3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s">
         <v>86</v>
       </c>
-      <c r="AH3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="AL3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AL3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS3" s="5" t="s">
+      <c r="AT3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU3" t="s">
         <v>81</v>
       </c>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="5"/>
+      <c r="AV3" s="8">
+        <v>43608</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BK3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BW3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BZ3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="CB3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CC3" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1177,17 +3179,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:BW3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1249,16 +3251,169 @@
         <v>33</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1278,7 +3433,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -1319,370 +3474,402 @@
       <c r="T2">
         <v>250100</v>
       </c>
-      <c r="U2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>45</v>
+      <c r="U2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP2" s="8">
+        <v>43608</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BV2" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:75" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>2365458721</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>5689451278</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3">
+        <v>65894</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3">
+        <v>250100</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP3" s="8">
+        <v>43608</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BV3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW3" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>2365458721</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>5689451278</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2">
-        <v>65894</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2">
-        <v>250100</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>2365458721</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>5689451278</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2">
-        <v>65894</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2">
-        <v>250100</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Data/PDS_Data_Sheet.xlsx
+++ b/Data/PDS_Data_Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="178">
   <si>
     <t>userName</t>
   </si>
@@ -536,7 +536,31 @@
     <t>Reassign</t>
   </si>
   <si>
-    <t>Complete the assignment</t>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Complete this assignment</t>
+  </si>
+  <si>
+    <t>06/30/2019</t>
+  </si>
+  <si>
+    <t>07/30/2019</t>
+  </si>
+  <si>
+    <t>06/15/2019</t>
   </si>
 </sst>
 </file>
@@ -611,7 +635,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -987,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY3"/>
+  <dimension ref="A1:CA3"/>
   <sheetViews>
-    <sheetView topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:CB3"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,13 +1039,14 @@
     <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" customWidth="1"/>
     <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="19.85546875" customWidth="1"/>
-    <col min="44" max="44" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1107,7 @@
       <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" t="s">
         <v>34</v>
       </c>
       <c r="V1" t="s">
@@ -1151,7 +1176,7 @@
       <c r="AQ1" t="s">
         <v>108</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>81</v>
       </c>
       <c r="AS1" t="s">
@@ -1250,8 +1275,17 @@
       <c r="BX1" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="BY1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="2" spans="1:77" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1312,11 +1346,11 @@
       <c r="T2">
         <v>250100</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V2" t="s">
-        <v>37</v>
+      <c r="V2" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="W2" t="s">
         <v>41</v>
@@ -1333,17 +1367,17 @@
       <c r="AA2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="3" t="s">
         <v>59</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="AF2" t="s">
         <v>76</v>
@@ -1372,17 +1406,17 @@
       <c r="AN2" t="s">
         <v>80</v>
       </c>
-      <c r="AO2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AO2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP2" s="3" t="s">
         <v>59</v>
       </c>
       <c r="AQ2" t="s">
         <v>81</v>
       </c>
-      <c r="AR2" s="8">
-        <v>43608</v>
+      <c r="AR2" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="AS2" t="s">
         <v>82</v>
@@ -1393,8 +1427,8 @@
       <c r="AU2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AV2" t="s">
-        <v>37</v>
+      <c r="AV2" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>118</v>
@@ -1411,7 +1445,7 @@
       <c r="BA2" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="BB2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="BC2" s="5" t="s">
@@ -1423,7 +1457,7 @@
       <c r="BE2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BF2" s="3" t="s">
         <v>59</v>
       </c>
       <c r="BG2" s="5" t="s">
@@ -1435,7 +1469,7 @@
       <c r="BI2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="BJ2" s="4" t="s">
+      <c r="BJ2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="BK2" s="4" t="s">
@@ -1472,7 +1506,7 @@
         <v>167</v>
       </c>
       <c r="BV2" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="BW2" s="3" t="s">
         <v>161</v>
@@ -1480,8 +1514,17 @@
       <c r="BX2" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="BY2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BZ2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="CA2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:77" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:79" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1542,11 +1585,11 @@
       <c r="T3">
         <v>250100</v>
       </c>
-      <c r="U3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>59</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="W3" t="s">
         <v>41</v>
@@ -1563,17 +1606,17 @@
       <c r="AA3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AB3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AB3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="AF3" t="s">
         <v>76</v>
@@ -1581,8 +1624,8 @@
       <c r="AG3" t="s">
         <v>86</v>
       </c>
-      <c r="AH3" s="3" t="s">
-        <v>110</v>
+      <c r="AH3" t="s">
+        <v>83</v>
       </c>
       <c r="AI3" t="s">
         <v>77</v>
@@ -1602,17 +1645,17 @@
       <c r="AN3" t="s">
         <v>80</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AP3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AQ3" t="s">
         <v>81</v>
       </c>
-      <c r="AR3" s="8">
-        <v>43608</v>
+      <c r="AR3" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="AS3" t="s">
         <v>82</v>
@@ -1623,7 +1666,7 @@
       <c r="AU3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AW3" s="4" t="s">
@@ -1641,7 +1684,7 @@
       <c r="BA3" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BB3" s="3" t="s">
         <v>59</v>
       </c>
       <c r="BC3" s="5" t="s">
@@ -1653,7 +1696,7 @@
       <c r="BE3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BF3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="BG3" s="5" t="s">
@@ -1665,7 +1708,7 @@
       <c r="BI3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="BK3" s="4" t="s">
@@ -1710,9 +1753,40 @@
       <c r="BX3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="BY3" s="4"/>
+      <c r="BY3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BZ3" s="3">
+        <v>2019</v>
+      </c>
+      <c r="CA3">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
+      <formula1>"Consumer Lending,Equipment/Product/Supplies,Externship,Hotels/Events/Facilities,Insurance/Credentialing,Maintenance Service,Marketing Sponsorship/Media Buying,Professional Services/Temp Staffing,Software/Online Content"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:V3 AO2:AP3">
+      <formula1>"Yes,No,Don't Know"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AD3 AV2:AV3 BB2:BB3 BF2:BF3 BJ2:BJ3">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH3">
+      <formula1>"PHI -  Protected Health Information,PII - Personally Identifiable Information,Financial Information,Technical Information or Specifications,Other confidential information,None of the above,Don't Know"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ3">
+      <formula1>"Supplier Hosted,On-Premise,Cloud Service,Not Applicable,Other (Please Specify)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD2:BD3">
+      <formula1>"Federal Financial Institutions Examination Council (FFEIC),Health Insurance Portability and Accountability ACT (HIPAA),PCI DSS,Food &amp; Drug Administration,Other (Please Specify)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BH3">
+      <formula1>"The Health Information Trust Alliance (HITRUST),Information Security Standard (ISO) 27001,Statement on Standard for Attestation Engagement (SSAE) 16/18,Sarbanes - Oxley Act (SOX),Other (Please Specify)"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="Q2" r:id="rId2"/>
@@ -1727,15 +1801,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX3"/>
+  <dimension ref="A1:BZ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:CA3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:76" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1961,8 +2035,17 @@
       <c r="BW1" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="BX1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="2" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2051,7 +2134,7 @@
         <v>59</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="AE2" t="s">
         <v>76</v>
@@ -2089,8 +2172,8 @@
       <c r="AP2" t="s">
         <v>81</v>
       </c>
-      <c r="AQ2" s="8">
-        <v>43608</v>
+      <c r="AQ2" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="AR2" t="s">
         <v>82</v>
@@ -2180,7 +2263,7 @@
         <v>167</v>
       </c>
       <c r="BU2" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="BV2" s="3" t="s">
         <v>161</v>
@@ -2188,8 +2271,17 @@
       <c r="BW2" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="BX2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BY2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="BZ2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:76" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2278,7 +2370,7 @@
         <v>37</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="AE3" t="s">
         <v>76</v>
@@ -2316,8 +2408,8 @@
       <c r="AP3" t="s">
         <v>81</v>
       </c>
-      <c r="AQ3" s="8">
-        <v>43608</v>
+      <c r="AQ3" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="AR3" t="s">
         <v>82</v>
@@ -2415,9 +2507,22 @@
       <c r="BW3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="BX3" s="4"/>
+      <c r="BX3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BY3" s="3">
+        <v>2019</v>
+      </c>
+      <c r="BZ3">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3">
+      <formula1>"Facilities,Equipment,Other (Please Specify)"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="Q2" r:id="rId2"/>
@@ -2432,15 +2537,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CC3"/>
+  <dimension ref="A1:CE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AB3"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:81" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2681,8 +2786,17 @@
       <c r="CB1" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="CC1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="2" spans="1:81" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:83" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2755,16 +2869,16 @@
       <c r="X2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Y2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AC2" s="4" t="s">
@@ -2786,7 +2900,7 @@
         <v>59</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="AJ2" t="s">
         <v>76</v>
@@ -2824,8 +2938,8 @@
       <c r="AU2" t="s">
         <v>81</v>
       </c>
-      <c r="AV2" s="8">
-        <v>43608</v>
+      <c r="AV2" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="AW2" t="s">
         <v>82</v>
@@ -2915,7 +3029,7 @@
         <v>167</v>
       </c>
       <c r="BZ2" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="CA2" s="3" t="s">
         <v>161</v>
@@ -2923,8 +3037,17 @@
       <c r="CB2" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="CC2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CD2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="CE2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:81" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:83" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2997,16 +3120,16 @@
       <c r="X3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Y3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AC3" s="4" t="s">
@@ -3028,7 +3151,7 @@
         <v>37</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="AJ3" t="s">
         <v>76</v>
@@ -3066,8 +3189,8 @@
       <c r="AU3" t="s">
         <v>81</v>
       </c>
-      <c r="AV3" s="8">
-        <v>43608</v>
+      <c r="AV3" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="AW3" t="s">
         <v>82</v>
@@ -3165,9 +3288,22 @@
       <c r="CB3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="CC3" s="4"/>
+      <c r="CC3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="CD3" s="3">
+        <v>2019</v>
+      </c>
+      <c r="CE3">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:AB3">
+      <formula1>"Yes,No,Don't Know"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="Q2" r:id="rId2"/>
@@ -3181,15 +3317,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW3"/>
+  <dimension ref="A1:BY3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:V3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:75" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3412,8 +3548,17 @@
       <c r="BV1" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="BW1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="2" spans="1:75" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3430,7 +3575,7 @@
         <v>2365458721</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>64</v>
@@ -3477,7 +3622,7 @@
       <c r="U2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="W2" s="4" t="s">
@@ -3499,7 +3644,7 @@
         <v>59</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="AD2" t="s">
         <v>76</v>
@@ -3537,8 +3682,8 @@
       <c r="AO2" t="s">
         <v>81</v>
       </c>
-      <c r="AP2" s="8">
-        <v>43608</v>
+      <c r="AP2" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="AQ2" t="s">
         <v>82</v>
@@ -3628,7 +3773,7 @@
         <v>167</v>
       </c>
       <c r="BT2" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="BU2" s="3" t="s">
         <v>161</v>
@@ -3636,8 +3781,17 @@
       <c r="BV2" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="BW2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BX2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="BY2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:75" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:77" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3654,7 +3808,7 @@
         <v>2365458721</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>64</v>
@@ -3701,7 +3855,7 @@
       <c r="U3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="W3" s="4" t="s">
@@ -3723,7 +3877,7 @@
         <v>37</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="AD3" t="s">
         <v>76</v>
@@ -3761,8 +3915,8 @@
       <c r="AO3" t="s">
         <v>81</v>
       </c>
-      <c r="AP3" s="8">
-        <v>43608</v>
+      <c r="AP3" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="AQ3" t="s">
         <v>82</v>
@@ -3860,9 +4014,22 @@
       <c r="BV3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="BW3" s="4"/>
+      <c r="BW3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>2019</v>
+      </c>
+      <c r="BY3">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3">
+      <formula1>"Yes,No,Don't Know"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="Q2" r:id="rId2"/>
